--- a/output/fit_clients/fit_round_294.xlsx
+++ b/output/fit_clients/fit_round_294.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1639171032.113936</v>
+        <v>1806512729.872978</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07665502507291792</v>
+        <v>0.08344459692570211</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04008478693626714</v>
+        <v>0.04519716713672901</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>819585463.1847856</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1908664551.714143</v>
+        <v>2149639154.507244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1742564304755821</v>
+        <v>0.1452008128535767</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03653876921519095</v>
+        <v>0.04776579599464012</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>954332301.767625</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3516660065.364345</v>
+        <v>4711464712.784406</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1063464436592547</v>
+        <v>0.132665768049193</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03085588445544923</v>
+        <v>0.03174072755244669</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>106</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1758330012.615841</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2806735883.192027</v>
+        <v>3201674722.405549</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07690733235772462</v>
+        <v>0.0793392563854344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03417535811323699</v>
+        <v>0.04008157747955093</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1403368024.238107</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1914994306.670765</v>
+        <v>2880922975.775354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1369721035563481</v>
+        <v>0.09760976066836831</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03864852481929593</v>
+        <v>0.04157413522429459</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>55</v>
-      </c>
-      <c r="J6" t="n">
-        <v>957497192.131357</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2663023392.64027</v>
+        <v>2592952313.250659</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08027306712309885</v>
+        <v>0.06132133040924232</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03765573225712998</v>
+        <v>0.04412696537977719</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>92</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1331511693.637745</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2500513012.884214</v>
+        <v>2786070421.512177</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1815509070414591</v>
+        <v>0.1578096239725602</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02543096522487635</v>
+        <v>0.02572399192762118</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1250256512.895373</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2064273578.471233</v>
+        <v>2283608936.022039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1395209091352601</v>
+        <v>0.1572857669197642</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02336730028766258</v>
+        <v>0.0231645422338471</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1032136806.918423</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3920458448.70437</v>
+        <v>4560596256.284318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2048484221517151</v>
+        <v>0.2063861834530491</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0450373171558504</v>
+        <v>0.0479236945914819</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>124</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1960229240.065388</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3207179591.834448</v>
+        <v>3763911495.38996</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1787492189314884</v>
+        <v>0.1635051344533313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03622269210656433</v>
+        <v>0.04318651848535473</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>122</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1603589753.279111</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3148329917.261158</v>
+        <v>3228151006.023545</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1874040523105224</v>
+        <v>0.198345861653995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04702385418604415</v>
+        <v>0.03759520139932636</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>99</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1574164990.239272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3672325071.029521</v>
+        <v>5282961738.55887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0760143237856457</v>
+        <v>0.06472473070901708</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0246808544305565</v>
+        <v>0.02547328606410043</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>99</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1836162607.080644</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2496960702.506252</v>
+        <v>2904103755.979525</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1668799976193671</v>
+        <v>0.1479014316977465</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03341448355959276</v>
+        <v>0.0354132798083353</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1248480422.121658</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1395479339.572261</v>
+        <v>1664900817.734652</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08794124156914855</v>
+        <v>0.09581703542196646</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04104763287696027</v>
+        <v>0.03739137282089335</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>697739731.5887408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2630817420.943238</v>
+        <v>2837937326.436626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09970254063524471</v>
+        <v>0.08194995842917863</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04658895735076674</v>
+        <v>0.03172148610282168</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1315408729.598675</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3270470104.490719</v>
+        <v>5070420598.25792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1620577732552376</v>
+        <v>0.1070871474550846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04414359585053902</v>
+        <v>0.04809819702345319</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>86</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1635235122.859533</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3193762877.181402</v>
+        <v>3382897611.409575</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1263093421752741</v>
+        <v>0.1454262826298219</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02708574848710488</v>
+        <v>0.03225267234566839</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>96</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1596881454.823565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1042728677.934187</v>
+        <v>1227511565.37484</v>
       </c>
       <c r="F19" t="n">
-        <v>0.145931082695764</v>
+        <v>0.1871696800401438</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02060265772467462</v>
+        <v>0.02042101791416526</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>521364378.6107299</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2371762195.809329</v>
+        <v>2238140127.743924</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1038671570391375</v>
+        <v>0.1365731940592481</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01929173803579675</v>
+        <v>0.02591442753587653</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1185881084.639204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2688674286.556009</v>
+        <v>2120730720.585655</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0672520258692388</v>
+        <v>0.07574840757396463</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03538714309054408</v>
+        <v>0.03118567718598853</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>24</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1344337113.357865</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2832987069.788183</v>
+        <v>3777914414.135324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1305047705501647</v>
+        <v>0.1184182455980683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04545563980215815</v>
+        <v>0.03823277172019471</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1416493606.425328</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1136439757.265805</v>
+        <v>1404845400.543171</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1494797520289873</v>
+        <v>0.1830701356517852</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05256066319325775</v>
+        <v>0.05048920206707423</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>568219925.8196695</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4009911678.09626</v>
+        <v>3654183675.375587</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1068872152686179</v>
+        <v>0.1382690298928724</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02485757845277603</v>
+        <v>0.02500775118986634</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>86</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2004955806.376024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1066749017.981552</v>
+        <v>1105863250.79978</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1094034523771627</v>
+        <v>0.1147362666085872</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01897707155863522</v>
+        <v>0.02990476424102562</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>533374557.6153468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1317594095.222184</v>
+        <v>1040833999.198123</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1071493679902586</v>
+        <v>0.1154950037529966</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03034000697229484</v>
+        <v>0.03003058364234621</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>658797097.3969368</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3053568198.70446</v>
+        <v>3291073714.982447</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1073933177187881</v>
+        <v>0.1224083139692647</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01824726919780574</v>
+        <v>0.02291629232774157</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1526784156.513332</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3355433227.242377</v>
+        <v>3482553472.889314</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1463060282429194</v>
+        <v>0.1467663408657779</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03485382274591049</v>
+        <v>0.03867120165594692</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1677716655.684144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4716944530.612814</v>
+        <v>5360676687.663962</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1073098347878829</v>
+        <v>0.1426517191620055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03799731909754476</v>
+        <v>0.03035389961727599</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>130</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2358472232.523793</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2294240519.710239</v>
+        <v>1800438953.534981</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09238609693706798</v>
+        <v>0.1229345597283799</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02657589706878964</v>
+        <v>0.03994538221651792</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1147120330.798619</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1327935433.264889</v>
+        <v>1240269953.668955</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06773466475924976</v>
+        <v>0.08457783487545401</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03671986261084596</v>
+        <v>0.03647985387343539</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>663967637.9882045</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1602490202.597923</v>
+        <v>1866406350.600375</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07919319528683447</v>
+        <v>0.07366764899737936</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03821727685164724</v>
+        <v>0.02635509531530762</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>801245190.8536472</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1931332096.329887</v>
+        <v>2351288406.382946</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1362558037379139</v>
+        <v>0.206271716886037</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05444096433724826</v>
+        <v>0.04193803351293724</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>965666134.8024863</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1183205220.846052</v>
+        <v>1284843588.621313</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1115406577627679</v>
+        <v>0.08180510112969178</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01911046874462102</v>
+        <v>0.02140605664679697</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>591602618.2012811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>900402989.2563789</v>
+        <v>1268674024.166529</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07236162614288648</v>
+        <v>0.08491757610315837</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02792207815064076</v>
+        <v>0.03043651675299121</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>450201535.0460046</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2683141984.16677</v>
+        <v>3067816854.682747</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1650195930233394</v>
+        <v>0.1099613566114739</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02255114901456388</v>
+        <v>0.02533306818378761</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1341570999.403456</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2252238353.903834</v>
+        <v>2813147743.822742</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1118379853171365</v>
+        <v>0.1018279039762937</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03564506022261229</v>
+        <v>0.03568076126675018</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1126119238.965753</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1376162768.612107</v>
+        <v>1567416780.408499</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08390515802727838</v>
+        <v>0.1201399218232217</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03860879969274771</v>
+        <v>0.0342279283082913</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>688081451.0594304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1561697499.751017</v>
+        <v>1745505838.590065</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1700315779648358</v>
+        <v>0.1797521767152897</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02059077318335079</v>
+        <v>0.03218784835720632</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>780848810.9349182</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1101612950.594687</v>
+        <v>1752628734.554324</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09840366047326442</v>
+        <v>0.1494491395964905</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05056795804870792</v>
+        <v>0.04565041489815194</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>550806541.2033058</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2155736743.040179</v>
+        <v>2865944047.449731</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1336408193964345</v>
+        <v>0.1249244529509312</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04403343272873105</v>
+        <v>0.03221745835110187</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>73</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1077868430.466528</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3666982340.184533</v>
+        <v>2906958855.190302</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1237672876460665</v>
+        <v>0.09673502171339204</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03009857374314977</v>
+        <v>0.04523216315583403</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>101</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1833491176.44685</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2729849762.06037</v>
+        <v>2250681565.810491</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1285632949187457</v>
+        <v>0.2015576914991156</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0157807982980634</v>
+        <v>0.01828335097767131</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>107</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1364924906.591814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2122639671.243227</v>
+        <v>2071326857.794307</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06430118057865158</v>
+        <v>0.07941910440951298</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02464350316705554</v>
+        <v>0.02726921272912152</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1061319966.421921</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2379521997.553763</v>
+        <v>2456214398.497537</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1558165760259826</v>
+        <v>0.1822683915656783</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05225381609080141</v>
+        <v>0.05484221255303495</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1189761027.898436</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5564382989.776393</v>
+        <v>5359866193.077404</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1508882547453676</v>
+        <v>0.1473765274477415</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06054610633810147</v>
+        <v>0.04534487497618959</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>105</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2782191553.998258</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4189045168.534436</v>
+        <v>4164357489.817694</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2004867318804211</v>
+        <v>0.1642663325151521</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04350203853697839</v>
+        <v>0.04924206793082356</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>79</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2094522594.122505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4555998675.759953</v>
+        <v>3389233645.627421</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0669239872888867</v>
+        <v>0.0841868244455279</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02600393132031981</v>
+        <v>0.02974666483567374</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2277999339.919141</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1952626243.040029</v>
+        <v>1492963985.030773</v>
       </c>
       <c r="F49" t="n">
-        <v>0.185131476430823</v>
+        <v>0.1452926884084818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04204437732173986</v>
+        <v>0.03373138520808942</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>976313083.1806082</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2701129774.499209</v>
+        <v>3687214926.765716</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1135216437042907</v>
+        <v>0.1303120115202407</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03673453524315692</v>
+        <v>0.05195668161448322</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>100</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1350564968.346086</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1360913560.634095</v>
+        <v>1043240304.112781</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1493791949575574</v>
+        <v>0.1478630742301894</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03788667512215581</v>
+        <v>0.03689994993682401</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>680456805.7912263</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4790721286.852317</v>
+        <v>3298720243.014798</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1377227190795963</v>
+        <v>0.1288332708069354</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05492873278666818</v>
+        <v>0.03951291436269971</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>121</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2395360653.368569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2904380984.255057</v>
+        <v>2558435008.605814</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1452252748920127</v>
+        <v>0.1274352096552645</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0292969330364638</v>
+        <v>0.0235661635336881</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>84</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1452190531.13231</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4501982228.215224</v>
+        <v>3084538033.630126</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1371254968281829</v>
+        <v>0.1465396136070662</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05134699422568311</v>
+        <v>0.03372202556561769</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2250991217.580829</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4577965665.204906</v>
+        <v>3755736646.702377</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2111394449820254</v>
+        <v>0.1990816546223078</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02579653193907621</v>
+        <v>0.02632043544242699</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>81</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2288982832.998361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1359800105.585352</v>
+        <v>1446672581.36384</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1390817385545712</v>
+        <v>0.11488177145474</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04830742737639106</v>
+        <v>0.04513707911013704</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>679900115.8363465</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2938918182.791608</v>
+        <v>3317210040.760584</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1253362520341272</v>
+        <v>0.1500589430158403</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02209065642330014</v>
+        <v>0.02053174249096465</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>93</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1469459090.671183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1682552836.41962</v>
+        <v>1821039287.445999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1268850201035072</v>
+        <v>0.1340608683514236</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03449952793979683</v>
+        <v>0.03945442652287824</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>841276432.6811986</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5052965523.048347</v>
+        <v>3646143996.579507</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07918281986183826</v>
+        <v>0.1249001655508839</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03214931928727661</v>
+        <v>0.03189735098592614</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2526482686.68558</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3575125921.42347</v>
+        <v>3075214826.065663</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1534752331740637</v>
+        <v>0.1338287018396017</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03034718575020686</v>
+        <v>0.02820051841779559</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>90</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1787563091.390651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3134503804.063531</v>
+        <v>2992108304.385536</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1144201080075879</v>
+        <v>0.1241670078541516</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02409813528411592</v>
+        <v>0.03177184581562216</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>101</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1567251869.818559</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1850183267.049318</v>
+        <v>1991176149.995192</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1799064271554106</v>
+        <v>0.1488887008376985</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03121593990550025</v>
+        <v>0.03405624747423767</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>925091669.1377046</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5358635833.723658</v>
+        <v>5331266636.569784</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07738162238774729</v>
+        <v>0.06728867784304025</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03811073820186857</v>
+        <v>0.03185268484940004</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>84</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2679317918.607688</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5045407719.88178</v>
+        <v>3681052532.320658</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1424570626178461</v>
+        <v>0.1829991005118882</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02429065858847846</v>
+        <v>0.02419574357971719</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>91</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2522703969.335248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5037430722.53441</v>
+        <v>5571404847.594062</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1575961669366081</v>
+        <v>0.1115994951931574</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02464878503384366</v>
+        <v>0.02972953468840451</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>105</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2518715317.943465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4952455159.110169</v>
+        <v>3963599634.116479</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1194215159695647</v>
+        <v>0.1283352702352689</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03159466391159881</v>
+        <v>0.03770742593583463</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>85</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2476227604.205744</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2575468328.025489</v>
+        <v>2133387142.450405</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08768429661288477</v>
+        <v>0.07676471092517621</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03416675167849416</v>
+        <v>0.03444889447438472</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>94</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1287734218.252701</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3890077757.157786</v>
+        <v>5951295832.094704</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1148909603630347</v>
+        <v>0.1072111144991229</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04249496848711774</v>
+        <v>0.04654414817961156</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1945038867.705282</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1750425557.860357</v>
+        <v>2009048882.648304</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1189706272890536</v>
+        <v>0.1510549611708441</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04971213465603094</v>
+        <v>0.05807937233396264</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>875212751.5963345</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3166541201.332781</v>
+        <v>2331452165.160049</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06723553777073527</v>
+        <v>0.1014943556821608</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04176296910677703</v>
+        <v>0.03338042665726195</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>84</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1583270588.473686</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4753937272.682174</v>
+        <v>4139692917.171624</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1540560925184118</v>
+        <v>0.1625345980899847</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02405636771228864</v>
+        <v>0.03408772517738273</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>108</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2376968723.661883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2244323316.396135</v>
+        <v>1514606682.194755</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06636726649048312</v>
+        <v>0.08015276209232337</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03815609004278758</v>
+        <v>0.04232943216724535</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1122161565.147505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2444599065.740047</v>
+        <v>3081674928.896349</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09026953168417358</v>
+        <v>0.09881361456925972</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04812565785267715</v>
+        <v>0.04890539736577194</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>112</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1222299579.697673</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2607521839.568897</v>
+        <v>2721027428.062623</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1112599986794351</v>
+        <v>0.1825698314003949</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02380819901075576</v>
+        <v>0.03407956503862869</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>100</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1303761019.110044</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1546663718.170743</v>
+        <v>1822659244.808446</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1056892757092902</v>
+        <v>0.1250534988527996</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03223460394365837</v>
+        <v>0.03686850005748032</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>773331865.7392315</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5294017330.724979</v>
+        <v>4770862553.130197</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1213756239450659</v>
+        <v>0.08507820946255537</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02376377528113621</v>
+        <v>0.02743971471871887</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>67</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2647008704.363709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2287127790.277321</v>
+        <v>1460038085.879458</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1431440330554781</v>
+        <v>0.1321862705117666</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02336432578733514</v>
+        <v>0.0217370353327498</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1143563999.060879</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4487831627.04677</v>
+        <v>4621991979.49226</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08592915186433572</v>
+        <v>0.1353565839229654</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05006437518699881</v>
+        <v>0.04613414124448802</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>102</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2243915744.341822</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1471033389.981301</v>
+        <v>1687473347.004377</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1399016505975389</v>
+        <v>0.1107292248175409</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03818869462580236</v>
+        <v>0.03244507899381797</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>735516724.1429538</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3797682120.101849</v>
+        <v>5055128983.207637</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08780515527843025</v>
+        <v>0.1001078538654433</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02988569912337441</v>
+        <v>0.03143084001690682</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>61</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1898841049.452404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3164453731.691885</v>
+        <v>4220956253.933265</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1251974212869858</v>
+        <v>0.1072783541072392</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02982760962664609</v>
+        <v>0.02816448137383934</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1582226798.037588</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3641544012.953857</v>
+        <v>3554595247.056615</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1520022219870232</v>
+        <v>0.2092693336658259</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02480924748025811</v>
+        <v>0.02061614394046877</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1820772066.251765</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1570347272.669784</v>
+        <v>1590243767.131855</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1481880662217016</v>
+        <v>0.1043656949644915</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04155935235447503</v>
+        <v>0.04559600436885951</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>785173568.1701632</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2510551700.48099</v>
+        <v>2494483792.359161</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1176347947682655</v>
+        <v>0.0900238426082739</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04899762274759877</v>
+        <v>0.04330693874468537</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1255275780.452958</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3583454948.477226</v>
+        <v>3287813260.119845</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1183399952487517</v>
+        <v>0.14956319242452</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05517762811445232</v>
+        <v>0.04571026850200118</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>111</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1791727598.804</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2462589621.277461</v>
+        <v>2117400542.957299</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1436177151170943</v>
+        <v>0.1536214806783339</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02577929480759837</v>
+        <v>0.02209766359614943</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1231294902.590683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1010403891.997461</v>
+        <v>1283101604.459584</v>
       </c>
       <c r="F87" t="n">
-        <v>0.145023690617685</v>
+        <v>0.1721665016922604</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04063846162957979</v>
+        <v>0.03257904194937079</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>505201952.9956281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3741849345.131059</v>
+        <v>2521237025.788739</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1410628273574023</v>
+        <v>0.1206330790346883</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03179560325339324</v>
+        <v>0.03905266289064396</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>117</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1870924776.336681</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2577560707.475312</v>
+        <v>2129581794.118876</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1552759912139005</v>
+        <v>0.125174582456335</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02610409236916677</v>
+        <v>0.04144884335811302</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>100</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1288780422.80222</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1808893609.703022</v>
+        <v>1838788451.392151</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1364696956632262</v>
+        <v>0.1014554373862559</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05120966270287969</v>
+        <v>0.04535340077909884</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>904446840.0928138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1618934095.885832</v>
+        <v>2091167768.738285</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1415745638592235</v>
+        <v>0.1682311456614031</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05394643939260114</v>
+        <v>0.05809933435680433</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>809467070.992399</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2897062045.017035</v>
+        <v>2490370216.458987</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07628479226678056</v>
+        <v>0.105633970633738</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0418538567211225</v>
+        <v>0.04212630626922534</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>75</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1448531036.436736</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4721360092.689861</v>
+        <v>3127689309.41403</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09543960521453806</v>
+        <v>0.1401716000695331</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03991917551616392</v>
+        <v>0.0538036531624311</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2360680000.327082</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2479913245.948104</v>
+        <v>1933872517.742281</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1562028037886592</v>
+        <v>0.1203531964042685</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04066702584457896</v>
+        <v>0.03403382893901804</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1239956683.849836</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2604014848.821871</v>
+        <v>2349317270.265789</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08473075024187866</v>
+        <v>0.1031185159283235</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03512325994055508</v>
+        <v>0.04023703283817492</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1302007452.931943</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1511325978.660138</v>
+        <v>1831598108.745389</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1397004086873218</v>
+        <v>0.1107291913482105</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03828211365355244</v>
+        <v>0.03896220189843273</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>755663028.4688082</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4481129241.834</v>
+        <v>4600164492.916889</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1253317712743126</v>
+        <v>0.1380074398863529</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02507425359562398</v>
+        <v>0.027831761875554</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2240564715.985398</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3588455255.461222</v>
+        <v>3940917176.246077</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1225467137095662</v>
+        <v>0.07934437975488691</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03045974020803857</v>
+        <v>0.03001890108526826</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1794227652.339256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2468955669.226943</v>
+        <v>3038295808.299683</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1295321654292184</v>
+        <v>0.1208972692176471</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02958247173694692</v>
+        <v>0.03489307598888375</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>92</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1234477782.077046</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3785436108.366024</v>
+        <v>4010618297.226928</v>
       </c>
       <c r="F100" t="n">
-        <v>0.13145096036166</v>
+        <v>0.1307181945929518</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0237111461967832</v>
+        <v>0.02134591801006264</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>90</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1892718107.713467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3060132221.041938</v>
+        <v>2423699804.782296</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1382672993086746</v>
+        <v>0.1512093217918349</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05006168324742582</v>
+        <v>0.03876840888910819</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>116</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1530066207.499135</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_294.xlsx
+++ b/output/fit_clients/fit_round_294.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1806512729.872978</v>
+        <v>1775936022.687677</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08344459692570211</v>
+        <v>0.0815743472042071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04519716713672901</v>
+        <v>0.04489214780396349</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2149639154.507244</v>
+        <v>1747931295.560963</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1452008128535767</v>
+        <v>0.1570473430581465</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04776579599464012</v>
+        <v>0.04962430134171383</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4711464712.784406</v>
+        <v>3188172445.805576</v>
       </c>
       <c r="F4" t="n">
-        <v>0.132665768049193</v>
+        <v>0.1570941958878016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03174072755244669</v>
+        <v>0.02537733624258469</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3201674722.405549</v>
+        <v>3341556351.370525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0793392563854344</v>
+        <v>0.1067746114984834</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04008157747955093</v>
+        <v>0.04880960494636097</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2880922975.775354</v>
+        <v>1759212038.809291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09760976066836831</v>
+        <v>0.09033414199949857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04157413522429459</v>
+        <v>0.03894270718500088</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2592952313.250659</v>
+        <v>2115652085.446572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06132133040924232</v>
+        <v>0.06576279127778878</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04412696537977719</v>
+        <v>0.0395690094098984</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2786070421.512177</v>
+        <v>3975473829.44709</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1578096239725602</v>
+        <v>0.1693093467930704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02572399192762118</v>
+        <v>0.03268845855230709</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2283608936.022039</v>
+        <v>1627983692.584878</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1572857669197642</v>
+        <v>0.1242599709675914</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0231645422338471</v>
+        <v>0.02801599930419472</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4560596256.284318</v>
+        <v>5312759394.204829</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2063861834530491</v>
+        <v>0.2013009250010221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0479236945914819</v>
+        <v>0.04694934647968526</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3763911495.38996</v>
+        <v>4106597560.333904</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1635051344533313</v>
+        <v>0.116003706771742</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04318651848535473</v>
+        <v>0.03011490509183248</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3228151006.023545</v>
+        <v>2484539962.161271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.198345861653995</v>
+        <v>0.1585214266624602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03759520139932636</v>
+        <v>0.04247900518793367</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5282961738.55887</v>
+        <v>4604774394.778714</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06472473070901708</v>
+        <v>0.06370503731434841</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02547328606410043</v>
+        <v>0.02823348488537194</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2904103755.979525</v>
+        <v>3826892268.332519</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1479014316977465</v>
+        <v>0.1483231317605876</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0354132798083353</v>
+        <v>0.02841568486934556</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1664900817.734652</v>
+        <v>1418046457.631181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09581703542196646</v>
+        <v>0.08005926015552225</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03739137282089335</v>
+        <v>0.03662787751680027</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2837937326.436626</v>
+        <v>2028695409.027622</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08194995842917863</v>
+        <v>0.08544155484973014</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03172148610282168</v>
+        <v>0.03902907407464764</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5070420598.25792</v>
+        <v>3434150851.130527</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1070871474550846</v>
+        <v>0.1090889456355402</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04809819702345319</v>
+        <v>0.03321025026842334</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3382897611.409575</v>
+        <v>3747147419.993724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1454262826298219</v>
+        <v>0.1467975059275449</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03225267234566839</v>
+        <v>0.02800021715800912</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1227511565.37484</v>
+        <v>1059728809.693861</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1871696800401438</v>
+        <v>0.1640748708466663</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02042101791416526</v>
+        <v>0.0219832449958889</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2238140127.743924</v>
+        <v>1970332865.183504</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1365731940592481</v>
+        <v>0.161268498618961</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02591442753587653</v>
+        <v>0.02096532071946856</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2120730720.585655</v>
+        <v>2434066916.1127</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07574840757396463</v>
+        <v>0.07576039279728203</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03118567718598853</v>
+        <v>0.02793739546186957</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3777914414.135324</v>
+        <v>2808881961.394931</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1184182455980683</v>
+        <v>0.1042767612175159</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03823277172019471</v>
+        <v>0.04668120894394797</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1404845400.543171</v>
+        <v>1448685047.783432</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1830701356517852</v>
+        <v>0.1633394289242079</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05048920206707423</v>
+        <v>0.04435435045464238</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3654183675.375587</v>
+        <v>3772504438.647114</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1382690298928724</v>
+        <v>0.1309644209832776</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02500775118986634</v>
+        <v>0.03470297895546743</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1105863250.79978</v>
+        <v>1073851474.955384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147362666085872</v>
+        <v>0.1108945345536661</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02990476424102562</v>
+        <v>0.02099932235272539</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1040833999.198123</v>
+        <v>1077043613.284864</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1154950037529966</v>
+        <v>0.1123818791747466</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03003058364234621</v>
+        <v>0.0330981701292795</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3291073714.982447</v>
+        <v>3250922288.810421</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1224083139692647</v>
+        <v>0.1429205962819093</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02291629232774157</v>
+        <v>0.01880016113446016</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3482553472.889314</v>
+        <v>3087543453.804386</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1467663408657779</v>
+        <v>0.1272815494748374</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03867120165594692</v>
+        <v>0.04623845179079048</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5360676687.663962</v>
+        <v>4380939797.248164</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1426517191620055</v>
+        <v>0.1339823341458237</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03035389961727599</v>
+        <v>0.0377120627380472</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1800438953.534981</v>
+        <v>1675131935.318468</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1229345597283799</v>
+        <v>0.1081812844720598</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03994538221651792</v>
+        <v>0.03225080579841059</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1240269953.668955</v>
+        <v>1100433926.083959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08457783487545401</v>
+        <v>0.0787065718969399</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03647985387343539</v>
+        <v>0.0423588235106503</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1866406350.600375</v>
+        <v>1184887266.06267</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07366764899737936</v>
+        <v>0.07943696575121222</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02635509531530762</v>
+        <v>0.03820312586907985</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351288406.382946</v>
+        <v>1942114369.736265</v>
       </c>
       <c r="F33" t="n">
-        <v>0.206271716886037</v>
+        <v>0.1830202105916891</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04193803351293724</v>
+        <v>0.05155078326594181</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1284843588.621313</v>
+        <v>1089088240.701697</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08180510112969178</v>
+        <v>0.1152761224606155</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02140605664679697</v>
+        <v>0.01896013247131606</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1268674024.166529</v>
+        <v>1023015139.185121</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08491757610315837</v>
+        <v>0.07960158974890644</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03043651675299121</v>
+        <v>0.02793564193898443</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3067816854.682747</v>
+        <v>2559945025.881095</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1099613566114739</v>
+        <v>0.1491361247844587</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02533306818378761</v>
+        <v>0.02500013706826787</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2813147743.822742</v>
+        <v>2656332692.877382</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1018279039762937</v>
+        <v>0.1042959394289325</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03568076126675018</v>
+        <v>0.03061021320412917</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1567416780.408499</v>
+        <v>1677344869.468659</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1201399218232217</v>
+        <v>0.0825965348282862</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0342279283082913</v>
+        <v>0.03311338292700788</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1745505838.590065</v>
+        <v>1948026560.835964</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1797521767152897</v>
+        <v>0.1340617184002223</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03218784835720632</v>
+        <v>0.02989621424268718</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1752628734.554324</v>
+        <v>1152506762.165199</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1494491395964905</v>
+        <v>0.1095742655884335</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04565041489815194</v>
+        <v>0.04713442554110502</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2865944047.449731</v>
+        <v>2069366229.467961</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1249244529509312</v>
+        <v>0.1406349987030339</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03221745835110187</v>
+        <v>0.03126584593586899</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2906958855.190302</v>
+        <v>4310783109.22364</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09673502171339204</v>
+        <v>0.0936016857290398</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04523216315583403</v>
+        <v>0.04205068687083926</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2250681565.810491</v>
+        <v>2227413451.433342</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2015576914991156</v>
+        <v>0.1720120589938174</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01828335097767131</v>
+        <v>0.02339219471205008</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2071326857.794307</v>
+        <v>1661257827.084418</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07941910440951298</v>
+        <v>0.07802875109438781</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02726921272912152</v>
+        <v>0.02987050238499784</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2456214398.497537</v>
+        <v>1745257040.496578</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1822683915656783</v>
+        <v>0.1481591717315625</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05484221255303495</v>
+        <v>0.04295059233440546</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5359866193.077404</v>
+        <v>5130353678.731423</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1473765274477415</v>
+        <v>0.1098125042992826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04534487497618959</v>
+        <v>0.04313952652813575</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4164357489.817694</v>
+        <v>4474752184.10556</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1642663325151521</v>
+        <v>0.158116716588607</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04924206793082356</v>
+        <v>0.05573567923973709</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3389233645.627421</v>
+        <v>3314299847.101529</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0841868244455279</v>
+        <v>0.08327969596850017</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02974666483567374</v>
+        <v>0.02769079703245597</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1492963985.030773</v>
+        <v>1828958622.662573</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1452926884084818</v>
+        <v>0.1713369304934891</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03373138520808942</v>
+        <v>0.04101075342534789</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3687214926.765716</v>
+        <v>4109561886.051246</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1303120115202407</v>
+        <v>0.1707863033843742</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05195668161448322</v>
+        <v>0.04207007663222667</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1043240304.112781</v>
+        <v>1101766097.370584</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1478630742301894</v>
+        <v>0.1385181539238535</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03689994993682401</v>
+        <v>0.03643175858210785</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3298720243.014798</v>
+        <v>4488492565.283588</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1288332708069354</v>
+        <v>0.0948747828640991</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03951291436269971</v>
+        <v>0.05977945198960669</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2558435008.605814</v>
+        <v>2397186177.270834</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1274352096552645</v>
+        <v>0.1586089834278454</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0235661635336881</v>
+        <v>0.02460858411365572</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3084538033.630126</v>
+        <v>3558405870.006454</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1465396136070662</v>
+        <v>0.1300782149231078</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03372202556561769</v>
+        <v>0.05100265589831095</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3755736646.702377</v>
+        <v>4626485741.432709</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1990816546223078</v>
+        <v>0.1959353208656559</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02632043544242699</v>
+        <v>0.02062458361185136</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1446672581.36384</v>
+        <v>1488181293.568807</v>
       </c>
       <c r="F56" t="n">
-        <v>0.11488177145474</v>
+        <v>0.1457588133849032</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04513707911013704</v>
+        <v>0.0478480643314504</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3317210040.760584</v>
+        <v>2901070089.100319</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1500589430158403</v>
+        <v>0.1676605241377734</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02053174249096465</v>
+        <v>0.02479391285176201</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1821039287.445999</v>
+        <v>1244928766.604878</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1340608683514236</v>
+        <v>0.1360572650712063</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03945442652287824</v>
+        <v>0.03414618629732727</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3646143996.579507</v>
+        <v>4666154591.419464</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1249001655508839</v>
+        <v>0.1208307160771434</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03189735098592614</v>
+        <v>0.04008509149900829</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3075214826.065663</v>
+        <v>3348699549.044028</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1338287018396017</v>
+        <v>0.170103274876212</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02820051841779559</v>
+        <v>0.02376452533357733</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2992108304.385536</v>
+        <v>2514233962.863683</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1241670078541516</v>
+        <v>0.108640339823874</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03177184581562216</v>
+        <v>0.02432715742127923</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1991176149.995192</v>
+        <v>1282252343.534499</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1488887008376985</v>
+        <v>0.1888504537281976</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03405624747423767</v>
+        <v>0.03483564323581876</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5331266636.569784</v>
+        <v>5563048190.739196</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06728867784304025</v>
+        <v>0.07762185497088402</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03185268484940004</v>
+        <v>0.03724630507066636</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3681052532.320658</v>
+        <v>5530944981.353111</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1829991005118882</v>
+        <v>0.1271055947667821</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02419574357971719</v>
+        <v>0.02772442999252984</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5571404847.594062</v>
+        <v>4253595074.092735</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1115994951931574</v>
+        <v>0.1423997332923143</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02972953468840451</v>
+        <v>0.02418257205038259</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3963599634.116479</v>
+        <v>3898984778.229151</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1283352702352689</v>
+        <v>0.1058305921596904</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03770742593583463</v>
+        <v>0.03149920134908519</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2133387142.450405</v>
+        <v>3308724227.501823</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07676471092517621</v>
+        <v>0.06546490815845933</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03444889447438472</v>
+        <v>0.04709042918723391</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5951295832.094704</v>
+        <v>4697064641.978126</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1072111144991229</v>
+        <v>0.1026836213919487</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04654414817961156</v>
+        <v>0.03690488102364548</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2009048882.648304</v>
+        <v>1817545933.017756</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1510549611708441</v>
+        <v>0.1444369997651652</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05807937233396264</v>
+        <v>0.03685827404996737</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2331452165.160049</v>
+        <v>2346738193.318132</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1014943556821608</v>
+        <v>0.06260048706422437</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03338042665726195</v>
+        <v>0.03899156405221323</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4139692917.171624</v>
+        <v>4123805425.80155</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1625345980899847</v>
+        <v>0.1351392589082231</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03408772517738273</v>
+        <v>0.03161128063918876</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1514606682.194755</v>
+        <v>2264427668.261484</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08015276209232337</v>
+        <v>0.0999007372315216</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04232943216724535</v>
+        <v>0.03394415775395231</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3081674928.896349</v>
+        <v>2359387859.150669</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09881361456925972</v>
+        <v>0.09667118864088189</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04890539736577194</v>
+        <v>0.03396372829116719</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2721027428.062623</v>
+        <v>2489857703.41392</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1825698314003949</v>
+        <v>0.1617734857536231</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03407956503862869</v>
+        <v>0.03195393286424161</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1822659244.808446</v>
+        <v>1561007165.006446</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1250534988527996</v>
+        <v>0.1410566533080602</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03686850005748032</v>
+        <v>0.03274915247620057</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4770862553.130197</v>
+        <v>3568359231.399045</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08507820946255537</v>
+        <v>0.09669604664649677</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02743971471871887</v>
+        <v>0.02658222521148642</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1460038085.879458</v>
+        <v>1395212809.471203</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1321862705117666</v>
+        <v>0.1652169306179226</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0217370353327498</v>
+        <v>0.0263966318470903</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4621991979.49226</v>
+        <v>4734377915.431284</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1353565839229654</v>
+        <v>0.09827879892590459</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04613414124448802</v>
+        <v>0.04193638762137623</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1687473347.004377</v>
+        <v>1354259793.009049</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1107292248175409</v>
+        <v>0.1310154606881283</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03244507899381797</v>
+        <v>0.02851464393941294</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5055128983.207637</v>
+        <v>4059479503.383059</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1001078538654433</v>
+        <v>0.1061622460652188</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03143084001690682</v>
+        <v>0.0308525725066129</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4220956253.933265</v>
+        <v>4878449808.258237</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1072783541072392</v>
+        <v>0.1211867397107756</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02816448137383934</v>
+        <v>0.02558848377810398</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3554595247.056615</v>
+        <v>4108034697.424026</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2092693336658259</v>
+        <v>0.2103841880372679</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02061614394046877</v>
+        <v>0.02399900428743839</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1590243767.131855</v>
+        <v>1629583701.848941</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1043656949644915</v>
+        <v>0.1366778610796171</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04559600436885951</v>
+        <v>0.03405911576301354</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2494483792.359161</v>
+        <v>1838646100.945509</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0900238426082739</v>
+        <v>0.1011182255756511</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04330693874468537</v>
+        <v>0.03983341046647852</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3287813260.119845</v>
+        <v>3585373830.34895</v>
       </c>
       <c r="F85" t="n">
-        <v>0.14956319242452</v>
+        <v>0.1333973467558031</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04571026850200118</v>
+        <v>0.04128245817069708</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2117400542.957299</v>
+        <v>1878561494.573145</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1536214806783339</v>
+        <v>0.1709450804981318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02209766359614943</v>
+        <v>0.02495740889406372</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1283101604.459584</v>
+        <v>1175570053.581196</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1721665016922604</v>
+        <v>0.1155229107776437</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03257904194937079</v>
+        <v>0.04149660057462842</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2521237025.788739</v>
+        <v>2367343358.230168</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1206330790346883</v>
+        <v>0.1390884378668135</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03905266289064396</v>
+        <v>0.02850383490999748</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2129581794.118876</v>
+        <v>2888767168.154619</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125174582456335</v>
+        <v>0.1157975519341845</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04144884335811302</v>
+        <v>0.02679978770129169</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1838788451.392151</v>
+        <v>1726317204.916896</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1014554373862559</v>
+        <v>0.1306507338110203</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04535340077909884</v>
+        <v>0.04744675865773247</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2091167768.738285</v>
+        <v>1817614615.553469</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1682311456614031</v>
+        <v>0.1275687658251248</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05809933435680433</v>
+        <v>0.04488406433893612</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2490370216.458987</v>
+        <v>2469516569.706109</v>
       </c>
       <c r="F92" t="n">
-        <v>0.105633970633738</v>
+        <v>0.1081124761534369</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04212630626922534</v>
+        <v>0.03650432122301173</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3127689309.41403</v>
+        <v>3242701741.004362</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1401716000695331</v>
+        <v>0.09305146636117356</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0538036531624311</v>
+        <v>0.05225160840626123</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1933872517.742281</v>
+        <v>2369463682.208366</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1203531964042685</v>
+        <v>0.1489055011400504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03403382893901804</v>
+        <v>0.02645427008360058</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2349317270.265789</v>
+        <v>2191780586.984554</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031185159283235</v>
+        <v>0.1176876326844812</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04023703283817492</v>
+        <v>0.03957432685756813</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1831598108.745389</v>
+        <v>2225823220.182987</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1107291913482105</v>
+        <v>0.1129319573120366</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03896220189843273</v>
+        <v>0.04202051843832221</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4600164492.916889</v>
+        <v>4823115233.601675</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1380074398863529</v>
+        <v>0.1096854104584154</v>
       </c>
       <c r="G97" t="n">
-        <v>0.027831761875554</v>
+        <v>0.02854887026481862</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3940917176.246077</v>
+        <v>2700667680.514435</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07934437975488691</v>
+        <v>0.08164579668468476</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03001890108526826</v>
+        <v>0.02601610999561061</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3038295808.299683</v>
+        <v>2412219058.660033</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1208972692176471</v>
+        <v>0.1016344283555029</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03489307598888375</v>
+        <v>0.03183868512742792</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4010618297.226928</v>
+        <v>3728678255.201978</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1307181945929518</v>
+        <v>0.1669303886932455</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02134591801006264</v>
+        <v>0.02825101611669751</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2423699804.782296</v>
+        <v>2458963468.301375</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1512093217918349</v>
+        <v>0.2187589110282766</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03876840888910819</v>
+        <v>0.0555624384455551</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_294.xlsx
+++ b/output/fit_clients/fit_round_294.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1775936022.687677</v>
+        <v>2503788408.277963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0815743472042071</v>
+        <v>0.07371555856401714</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04489214780396349</v>
+        <v>0.03388214189744214</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1747931295.560963</v>
+        <v>2367056307.255984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1570473430581465</v>
+        <v>0.1631652783576338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04962430134171383</v>
+        <v>0.03057173542438798</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3188172445.805576</v>
+        <v>3512076690.722721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1570941958878016</v>
+        <v>0.1198487955105955</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02537733624258469</v>
+        <v>0.03642662415201164</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>155</v>
+      </c>
+      <c r="J4" t="n">
+        <v>292</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3341556351.370525</v>
+        <v>3416530696.778527</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1067746114984834</v>
+        <v>0.09992254983384553</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04880960494636097</v>
+        <v>0.03817802540319386</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>121</v>
+      </c>
+      <c r="J5" t="n">
+        <v>293</v>
+      </c>
+      <c r="K5" t="n">
+        <v>68.02303473079216</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1759212038.809291</v>
+        <v>2509142738.996436</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09033414199949857</v>
+        <v>0.1070322910821116</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03894270718500088</v>
+        <v>0.05220516688374664</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2115652085.446572</v>
+        <v>2439839457.747006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06576279127778878</v>
+        <v>0.08132126245641061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0395690094098984</v>
+        <v>0.04922214788871846</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3975473829.44709</v>
+        <v>3478127970.669476</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1693093467930704</v>
+        <v>0.1598695040743905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03268845855230709</v>
+        <v>0.03142789394153286</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>289</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1627983692.584878</v>
+        <v>2181481626.625978</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1242599709675914</v>
+        <v>0.1487817663235345</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02801599930419472</v>
+        <v>0.02892012956568703</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5312759394.204829</v>
+        <v>5866386143.171597</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2013009250010221</v>
+        <v>0.1586914652439765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04694934647968526</v>
+        <v>0.0500242825548605</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>261</v>
+      </c>
+      <c r="J10" t="n">
+        <v>294</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4106597560.333904</v>
+        <v>3256662171.904886</v>
       </c>
       <c r="F11" t="n">
-        <v>0.116003706771742</v>
+        <v>0.1534071349470058</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03011490509183248</v>
+        <v>0.04594103325925573</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2484539962.161271</v>
+        <v>2759716883.9755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1585214266624602</v>
+        <v>0.1551931971279412</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04247900518793367</v>
+        <v>0.04635267848754911</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +888,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4604774394.778714</v>
+        <v>5191855779.711946</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06370503731434841</v>
+        <v>0.08138522869692195</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02823348488537194</v>
+        <v>0.02271692024958926</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>150</v>
+      </c>
+      <c r="J13" t="n">
+        <v>294</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3826892268.332519</v>
+        <v>3609520648.032828</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1483231317605876</v>
+        <v>0.1648943685671622</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02841568486934556</v>
+        <v>0.03090243974294274</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>61</v>
+      </c>
+      <c r="J14" t="n">
+        <v>294</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1418046457.631181</v>
+        <v>1180922121.891077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08005926015552225</v>
+        <v>0.09297917822187486</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03662787751680027</v>
+        <v>0.04458043077546236</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2028695409.027622</v>
+        <v>2155029975.604525</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08544155484973014</v>
+        <v>0.07540722373857497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03902907407464764</v>
+        <v>0.03662428523544197</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3434150851.130527</v>
+        <v>4739748220.841965</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1090889456355402</v>
+        <v>0.1752076560452971</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03321025026842334</v>
+        <v>0.04566127233643676</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>140</v>
+      </c>
+      <c r="J17" t="n">
+        <v>293</v>
+      </c>
+      <c r="K17" t="n">
+        <v>82.44818551589836</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3747147419.993724</v>
+        <v>3467968128.40549</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1467975059275449</v>
+        <v>0.1647134417840793</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02800021715800912</v>
+        <v>0.02751170803955371</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>291</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1059728809.693861</v>
+        <v>1286068721.506244</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1640748708466663</v>
+        <v>0.12598688396957</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0219832449958889</v>
+        <v>0.02397627867595483</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1970332865.183504</v>
+        <v>1900066163.250504</v>
       </c>
       <c r="F20" t="n">
-        <v>0.161268498618961</v>
+        <v>0.1418033342064845</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02096532071946856</v>
+        <v>0.02117719787701883</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2434066916.1127</v>
+        <v>2529743463.334593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07576039279728203</v>
+        <v>0.07499707803967984</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02793739546186957</v>
+        <v>0.03888933086744519</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2808881961.394931</v>
+        <v>3764756230.330903</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1042767612175159</v>
+        <v>0.09043919170682424</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04668120894394797</v>
+        <v>0.05431419126760173</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>79</v>
+      </c>
+      <c r="J22" t="n">
+        <v>294</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1448685047.783432</v>
+        <v>1219079152.014111</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1633394289242079</v>
+        <v>0.1259142113965714</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04435435045464238</v>
+        <v>0.04792074395774046</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3772504438.647114</v>
+        <v>2521250184.721799</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1309644209832776</v>
+        <v>0.1451920118409507</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03470297895546743</v>
+        <v>0.03089515477402542</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>292</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1073851474.955384</v>
+        <v>923478356.6443262</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1108945345536661</v>
+        <v>0.08292949866569745</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02099932235272539</v>
+        <v>0.02344789836153065</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1077043613.284864</v>
+        <v>1144820216.226599</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1123818791747466</v>
+        <v>0.08093294426595687</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0330981701292795</v>
+        <v>0.0297062935259684</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3250922288.810421</v>
+        <v>4727591416.009514</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1429205962819093</v>
+        <v>0.114961659380158</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01880016113446016</v>
+        <v>0.02382772652941932</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>121</v>
+      </c>
+      <c r="J27" t="n">
+        <v>293</v>
+      </c>
+      <c r="K27" t="n">
+        <v>79.844127936609</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3087543453.804386</v>
+        <v>3478195152.832088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1272815494748374</v>
+        <v>0.1199881295058982</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04623845179079048</v>
+        <v>0.04558574842647682</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="n">
+        <v>68.03334347929139</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4380939797.248164</v>
+        <v>5492017761.784535</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1339823341458237</v>
+        <v>0.1381974912281594</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0377120627380472</v>
+        <v>0.03038274026239118</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>278</v>
+      </c>
+      <c r="J29" t="n">
+        <v>294</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1675131935.318468</v>
+        <v>2293111930.740814</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1081812844720598</v>
+        <v>0.1091674370491247</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03225080579841059</v>
+        <v>0.02577192425403725</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1524,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1100433926.083959</v>
+        <v>1437215642.781604</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0787065718969399</v>
+        <v>0.08410904934721798</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0423588235106503</v>
+        <v>0.03836545690206676</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1184887266.06267</v>
+        <v>1228466526.902611</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07943696575121222</v>
+        <v>0.1054361052330107</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03820312586907985</v>
+        <v>0.02823348604035021</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1942114369.736265</v>
+        <v>2321284044.734868</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1830202105916891</v>
+        <v>0.1522266941525691</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05155078326594181</v>
+        <v>0.04421079370342926</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1089088240.701697</v>
+        <v>980172365.923643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1152761224606155</v>
+        <v>0.08333722634537694</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01896013247131606</v>
+        <v>0.02036096326459258</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1023015139.185121</v>
+        <v>941744267.7526537</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07960158974890644</v>
+        <v>0.08214832900350709</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02793564193898443</v>
+        <v>0.02741905982645186</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2559945025.881095</v>
+        <v>2641184546.730388</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1491361247844587</v>
+        <v>0.157678740799536</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02500013706826787</v>
+        <v>0.02843715444927186</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2656332692.877382</v>
+        <v>2019076495.111612</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1042959394289325</v>
+        <v>0.08446471254260966</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03061021320412917</v>
+        <v>0.03200828339091301</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1677344869.468659</v>
+        <v>1639168064.629044</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0825965348282862</v>
+        <v>0.09453818394616115</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03311338292700788</v>
+        <v>0.03273967683936174</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1948026560.835964</v>
+        <v>1736512625.163374</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1340617184002223</v>
+        <v>0.188374644998404</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02989621424268718</v>
+        <v>0.02690110183303833</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1152506762.165199</v>
+        <v>1386804050.400395</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1095742655884335</v>
+        <v>0.1060078948863108</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04713442554110502</v>
+        <v>0.03945904759025747</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2069366229.467961</v>
+        <v>2846563234.873613</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1406349987030339</v>
+        <v>0.1228008814601667</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03126584593586899</v>
+        <v>0.03077979049961257</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4310783109.22364</v>
+        <v>3945527310.644413</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0936016857290398</v>
+        <v>0.1007054941489448</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04205068687083926</v>
+        <v>0.03096669554660435</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>121</v>
+      </c>
+      <c r="J42" t="n">
+        <v>294</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2227413451.433342</v>
+        <v>2297764504.611637</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1720120589938174</v>
+        <v>0.1720182525314545</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02339219471205008</v>
+        <v>0.02268411169778656</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1661257827.084418</v>
+        <v>1924463125.247423</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07802875109438781</v>
+        <v>0.08224981253928952</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02987050238499784</v>
+        <v>0.02843089741854066</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1745257040.496578</v>
+        <v>2035251299.012704</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1481591717315625</v>
+        <v>0.1553371071520577</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04295059233440546</v>
+        <v>0.05174795104397047</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5130353678.731423</v>
+        <v>5599428615.627509</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1098125042992826</v>
+        <v>0.1219698424834901</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04313952652813575</v>
+        <v>0.0541592325227838</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>174</v>
+      </c>
+      <c r="J46" t="n">
+        <v>294</v>
+      </c>
+      <c r="K46" t="n">
+        <v>85.56314400108137</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4474752184.10556</v>
+        <v>4775574259.723778</v>
       </c>
       <c r="F47" t="n">
-        <v>0.158116716588607</v>
+        <v>0.1406690013751186</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05573567923973709</v>
+        <v>0.05319550112219181</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>131</v>
+      </c>
+      <c r="J47" t="n">
+        <v>294</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3314299847.101529</v>
+        <v>3928637276.466582</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08327969596850017</v>
+        <v>0.07749172726999566</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02769079703245597</v>
+        <v>0.02550597640612874</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>146</v>
+      </c>
+      <c r="J48" t="n">
+        <v>294</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1828958622.662573</v>
+        <v>1253223618.307285</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1713369304934891</v>
+        <v>0.1580348218744954</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04101075342534789</v>
+        <v>0.03387469700713446</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4109561886.051246</v>
+        <v>2548791388.058715</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1707863033843742</v>
+        <v>0.1233901935468732</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04207007663222667</v>
+        <v>0.04801257754210493</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>94</v>
+      </c>
+      <c r="J50" t="n">
+        <v>292</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1101766097.370584</v>
+        <v>951364033.5568298</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1385181539238535</v>
+        <v>0.189309632028324</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03643175858210785</v>
+        <v>0.05340609274644447</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2255,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4488492565.283588</v>
+        <v>5297911576.644532</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0948747828640991</v>
+        <v>0.09748364748974814</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05977945198960669</v>
+        <v>0.05234640340203048</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>182</v>
+      </c>
+      <c r="J52" t="n">
+        <v>293</v>
+      </c>
+      <c r="K52" t="n">
+        <v>82.59527715003145</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2397186177.270834</v>
+        <v>3042983833.770721</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1586089834278454</v>
+        <v>0.1340866034218751</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02460858411365572</v>
+        <v>0.02958555913449889</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="n">
+        <v>49.22986347761556</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3558405870.006454</v>
+        <v>4798688953.648092</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1300782149231078</v>
+        <v>0.131260748616348</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05100265589831095</v>
+        <v>0.03198849798167387</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>155</v>
+      </c>
+      <c r="J54" t="n">
+        <v>294</v>
+      </c>
+      <c r="K54" t="n">
+        <v>86.0822911942663</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4626485741.432709</v>
+        <v>4770989097.678944</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1959353208656559</v>
+        <v>0.1818270341635572</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02062458361185136</v>
+        <v>0.02804860835555256</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>134</v>
+      </c>
+      <c r="J55" t="n">
+        <v>294</v>
+      </c>
+      <c r="K55" t="n">
+        <v>88.55488173426059</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1488181293.568807</v>
+        <v>1788973813.417434</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1457588133849032</v>
+        <v>0.1042531837169878</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0478480643314504</v>
+        <v>0.03518346842425188</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2901070089.100319</v>
+        <v>3481662315.270867</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1676605241377734</v>
+        <v>0.1727959045182839</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02479391285176201</v>
+        <v>0.02061752283646097</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>119</v>
+      </c>
+      <c r="J57" t="n">
+        <v>292</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1244928766.604878</v>
+        <v>1164793158.320282</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1360572650712063</v>
+        <v>0.1854423712807059</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03414618629732727</v>
+        <v>0.03029826709674895</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4666154591.419464</v>
+        <v>4095005934.696996</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1208307160771434</v>
+        <v>0.09394444189392495</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04008509149900829</v>
+        <v>0.0440502093011115</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>142</v>
+      </c>
+      <c r="J59" t="n">
+        <v>293</v>
+      </c>
+      <c r="K59" t="n">
+        <v>79.6851913479414</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3348699549.044028</v>
+        <v>3098373883.0149</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170103274876212</v>
+        <v>0.1862166205281408</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02376452533357733</v>
+        <v>0.02930396664671988</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2514233962.863683</v>
+        <v>2554573870.852083</v>
       </c>
       <c r="F61" t="n">
-        <v>0.108640339823874</v>
+        <v>0.1548293448853123</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02432715742127923</v>
+        <v>0.02848241936204529</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1282252343.534499</v>
+        <v>2098191924.671307</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1888504537281976</v>
+        <v>0.1385432718650872</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03483564323581876</v>
+        <v>0.03408054990372002</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5563048190.739196</v>
+        <v>5303863861.219493</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07762185497088402</v>
+        <v>0.06793433879671405</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03724630507066636</v>
+        <v>0.04157039836760876</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>143</v>
+      </c>
+      <c r="J63" t="n">
+        <v>293</v>
+      </c>
+      <c r="K63" t="n">
+        <v>83.11721415098786</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5530944981.353111</v>
+        <v>3744581364.932832</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1271055947667821</v>
+        <v>0.1459324231004179</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02772442999252984</v>
+        <v>0.02498526869775855</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>144</v>
+      </c>
+      <c r="J64" t="n">
+        <v>294</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4253595074.092735</v>
+        <v>3783221679.12743</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1423997332923143</v>
+        <v>0.126672199097078</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02418257205038259</v>
+        <v>0.02473409486179147</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>235</v>
+      </c>
+      <c r="J65" t="n">
+        <v>293</v>
+      </c>
+      <c r="K65" t="n">
+        <v>70.989835116121</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3898984778.229151</v>
+        <v>3988620998.267606</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1058305921596904</v>
+        <v>0.1353532220793786</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03149920134908519</v>
+        <v>0.04565929069557822</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>145</v>
+      </c>
+      <c r="J66" t="n">
+        <v>293</v>
+      </c>
+      <c r="K66" t="n">
+        <v>72.34130351104614</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3308724227.501823</v>
+        <v>2312543075.786803</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06546490815845933</v>
+        <v>0.0674565095716564</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04709042918723391</v>
+        <v>0.04066088082686883</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4697064641.978126</v>
+        <v>4719960383.827438</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1026836213919487</v>
+        <v>0.1043530567287366</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03690488102364548</v>
+        <v>0.04338042029611234</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>155</v>
+      </c>
+      <c r="J68" t="n">
+        <v>294</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1817545933.017756</v>
+        <v>1892168628.165116</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1444369997651652</v>
+        <v>0.163848585519469</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03685827404996737</v>
+        <v>0.03896632145675159</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2346738193.318132</v>
+        <v>3378346276.111484</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06260048706422437</v>
+        <v>0.0807314596932575</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03899156405221323</v>
+        <v>0.04443892844768229</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>43</v>
+      </c>
+      <c r="J70" t="n">
+        <v>291</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4123805425.80155</v>
+        <v>4165554839.800521</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1351392589082231</v>
+        <v>0.1583348716928281</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03161128063918876</v>
+        <v>0.03328912725766422</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>220</v>
+      </c>
+      <c r="J71" t="n">
+        <v>294</v>
+      </c>
+      <c r="K71" t="n">
+        <v>87.25167228525665</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2264427668.261484</v>
+        <v>1536626097.817003</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0999007372315216</v>
+        <v>0.08700424042305067</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03394415775395231</v>
+        <v>0.05032901024185989</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3014,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2359387859.150669</v>
+        <v>3331764831.593469</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09667118864088189</v>
+        <v>0.1074971807330545</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03396372829116719</v>
+        <v>0.03246906365843252</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>19</v>
+      </c>
+      <c r="J73" t="n">
+        <v>293</v>
+      </c>
+      <c r="K73" t="n">
+        <v>71.21703177593811</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2489857703.41392</v>
+        <v>3831089700.569846</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1617734857536231</v>
+        <v>0.1471979945762927</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03195393286424161</v>
+        <v>0.02455155959928317</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>78</v>
+      </c>
+      <c r="J74" t="n">
+        <v>294</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1561007165.006446</v>
+        <v>1953216411.353377</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1410566533080602</v>
+        <v>0.1153016827924443</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03274915247620057</v>
+        <v>0.03170728148229384</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3568359231.399045</v>
+        <v>4651026278.401259</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09669604664649677</v>
+        <v>0.08256158493960571</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02658222521148642</v>
+        <v>0.03161415574882519</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>138</v>
+      </c>
+      <c r="J76" t="n">
+        <v>293</v>
+      </c>
+      <c r="K76" t="n">
+        <v>78.62759246024794</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1395212809.471203</v>
+        <v>2160670927.868028</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1652169306179226</v>
+        <v>0.1483426304185275</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0263966318470903</v>
+        <v>0.02927212026853223</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4734377915.431284</v>
+        <v>3759492886.56254</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09827879892590459</v>
+        <v>0.09692981872726972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04193638762137623</v>
+        <v>0.03882935024198264</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>146</v>
+      </c>
+      <c r="J78" t="n">
+        <v>294</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1354259793.009049</v>
+        <v>1403601190.751319</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1310154606881283</v>
+        <v>0.1457281239641701</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02851464393941294</v>
+        <v>0.02822675372789286</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4059479503.383059</v>
+        <v>4056635829.934694</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1061622460652188</v>
+        <v>0.09447333844474114</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0308525725066129</v>
+        <v>0.03381209057999317</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>144</v>
+      </c>
+      <c r="J80" t="n">
+        <v>293</v>
+      </c>
+      <c r="K80" t="n">
+        <v>61.63186673137819</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4878449808.258237</v>
+        <v>4383462161.267195</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1211867397107756</v>
+        <v>0.09733936083467754</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02558848377810398</v>
+        <v>0.02692940322426192</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>135</v>
+      </c>
+      <c r="J81" t="n">
+        <v>293</v>
+      </c>
+      <c r="K81" t="n">
+        <v>76.44246905036634</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4108034697.424026</v>
+        <v>4144820855.655558</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2103841880372679</v>
+        <v>0.1379665002594384</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02399900428743839</v>
+        <v>0.01980076272313887</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>215</v>
+      </c>
+      <c r="J82" t="n">
+        <v>294</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1629583701.848941</v>
+        <v>1869876237.028176</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1366778610796171</v>
+        <v>0.1548830804723588</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03405911576301354</v>
+        <v>0.03555391869970319</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1838646100.945509</v>
+        <v>2521015746.782717</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1011182255756511</v>
+        <v>0.108957822460995</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03983341046647852</v>
+        <v>0.04602157970744381</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3585373830.34895</v>
+        <v>2980588859.443032</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1333973467558031</v>
+        <v>0.1840059754970365</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04128245817069708</v>
+        <v>0.04035943426683927</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1878561494.573145</v>
+        <v>2732443630.845881</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1709450804981318</v>
+        <v>0.1425386479927402</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02495740889406372</v>
+        <v>0.01903627427942626</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1175570053.581196</v>
+        <v>1325795699.820894</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1155229107776437</v>
+        <v>0.1602533830654167</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04149660057462842</v>
+        <v>0.03953228116097848</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2367343358.230168</v>
+        <v>2929750405.28869</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1390884378668135</v>
+        <v>0.1641072160829578</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02850383490999748</v>
+        <v>0.03845348360274132</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2888767168.154619</v>
+        <v>3199943942.570219</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1157975519341845</v>
+        <v>0.1475987514654451</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02679978770129169</v>
+        <v>0.03817753954594807</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1726317204.916896</v>
+        <v>1343196078.990716</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1306507338110203</v>
+        <v>0.09161199805219161</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04744675865773247</v>
+        <v>0.04947277070740608</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1817614615.553469</v>
+        <v>1567082009.119094</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1275687658251248</v>
+        <v>0.1196709558925058</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04488406433893612</v>
+        <v>0.05847391336194666</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2469516569.706109</v>
+        <v>2771283547.828169</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1081124761534369</v>
+        <v>0.09766129913289096</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03650432122301173</v>
+        <v>0.02976481175697544</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3242701741.004362</v>
+        <v>5017233810.313499</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09305146636117356</v>
+        <v>0.09761863697613818</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05225160840626123</v>
+        <v>0.04588554707326108</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>129</v>
+      </c>
+      <c r="J93" t="n">
+        <v>294</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2369463682.208366</v>
+        <v>2046543402.566326</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1489055011400504</v>
+        <v>0.1185215502130902</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02645427008360058</v>
+        <v>0.0290383151062038</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2191780586.984554</v>
+        <v>2895374869.408575</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1176876326844812</v>
+        <v>0.1376816745848656</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03957432685756813</v>
+        <v>0.03343060282031011</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2225823220.182987</v>
+        <v>2205323469.230095</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1129319573120366</v>
+        <v>0.0923063861816375</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04202051843832221</v>
+        <v>0.03099759444276756</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3862,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4823115233.601675</v>
+        <v>4963071771.622006</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1096854104584154</v>
+        <v>0.1261096468295548</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02854887026481862</v>
+        <v>0.01907888921909598</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>145</v>
+      </c>
+      <c r="J97" t="n">
+        <v>294</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2700667680.514435</v>
+        <v>3673656582.623765</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08164579668468476</v>
+        <v>0.08923240506614398</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02601610999561061</v>
+        <v>0.02941082890867185</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>72</v>
+      </c>
+      <c r="J98" t="n">
+        <v>293</v>
+      </c>
+      <c r="K98" t="n">
+        <v>67.22197731279364</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2412219058.660033</v>
+        <v>2220109126.343709</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1016344283555029</v>
+        <v>0.1006875336970241</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03183868512742792</v>
+        <v>0.0257004679773881</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3728678255.201978</v>
+        <v>4146133238.604661</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1669303886932455</v>
+        <v>0.1129008489677868</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02825101611669751</v>
+        <v>0.02296645794451517</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>127</v>
+      </c>
+      <c r="J100" t="n">
+        <v>294</v>
+      </c>
+      <c r="K100" t="n">
+        <v>87.22497746100478</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2458963468.301375</v>
+        <v>3103869385.5294</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2187589110282766</v>
+        <v>0.1988482078800417</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0555624384455551</v>
+        <v>0.05756880261108756</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
